--- a/src/test/resources/TestData/Team05-APISquadTestData.xlsx
+++ b/src/test/resources/TestData/Team05-APISquadTestData.xlsx
@@ -1,36 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syogi\eclipse-workspace\Team05_API_Squad\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajav\git\Team05_APISquad\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC17DC-6B2B-4C55-A8D3-C9F985E1EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53ED362-EC13-4E02-8CFD-06CFA35B4247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Program" sheetId="2" r:id="rId2"/>
     <sheet name="Batch" sheetId="3" r:id="rId3"/>
+    <sheet name="User" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="V7gfgs95oMe8R0X1XyBm5VQ3wOPA245uiiS1n805UL0="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="221">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -586,16 +579,131 @@
   <si>
     <t>Get Batch Details by Batch Id</t>
   </si>
+  <si>
+    <t>Create_Valid_User</t>
+  </si>
+  <si>
+    <t>/users/roleStatus</t>
+  </si>
+  <si>
+    <t>userComments</t>
+  </si>
+  <si>
+    <t>userEduPg</t>
+  </si>
+  <si>
+    <t>userEduUg</t>
+  </si>
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userPhoneNumber</t>
+  </si>
+  <si>
+    <t>userRoleMaps</t>
+  </si>
+  <si>
+    <t>userTimeZone</t>
+  </si>
+  <si>
+    <t>userVisaStatus</t>
+  </si>
+  <si>
+    <t>userLogin</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>userRoleList</t>
+  </si>
+  <si>
+    <t>userRoleProgramBatches</t>
+  </si>
+  <si>
+    <t>loginStatus</t>
+  </si>
+  <si>
+    <t>roleIds</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>userLoginEmail</t>
+  </si>
+  <si>
+    <t>Create a new User</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>+91 9675343333</t>
+  </si>
+  <si>
+    <t>Prashanthiyz</t>
+  </si>
+  <si>
+    <t>Rakeshxzx</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/Prashanthi1/</t>
+  </si>
+  <si>
+    <t>[{"roleId":"R01","userRoleStatus":"Active"}</t>
+  </si>
+  <si>
+    <t>{"userLoginEmail":"Prasha3w5hieiy1wp@gmail.com","loginStatus":"Active","status":"Active"}'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,6 +796,35 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -728,14 +865,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF60CBF3"/>
+        <bgColor rgb="FF60CBF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFCAEDFB"/>
+        <bgColor rgb="FFCAEDFB"/>
       </patternFill>
     </fill>
   </fills>
@@ -800,112 +937,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1125,12 +1276,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.88671875" customWidth="1"/>
-    <col min="9" max="26" width="21.5546875" customWidth="1"/>
+    <col min="1" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
+    <col min="9" max="26" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -29247,21 +29398,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="5" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="10" width="114.44140625" customWidth="1"/>
-    <col min="11" max="28" width="8.6640625" customWidth="1"/>
+    <col min="7" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="114.42578125" customWidth="1"/>
+    <col min="11" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -29344,7 +29495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -29374,7 +29525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -29456,7 +29607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -30488,27 +30639,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="49" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="47" t="s">
+    <row r="40" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A40" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
         <v>404</v>
       </c>
-      <c r="J40" s="48" t="s">
+      <c r="J40" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -30634,27 +30785,27 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="49" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A45" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7">
         <v>404</v>
       </c>
-      <c r="J45" s="48" t="s">
+      <c r="J45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -31983,24 +32134,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1">
@@ -34242,6 +34393,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4288ABC0-DE51-4F1D-BF0D-EE92A041B4A9}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="67.140625" customWidth="1"/>
+    <col min="21" max="21" width="64" customWidth="1"/>
+    <col min="24" max="24" width="87.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="14.25" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="V1" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="X1" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y1" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z1" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA1" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC1" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF1" s="49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="V2" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="47"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{E3FE39B1-0B35-42D0-ACBB-B7E8C451EFCD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
